--- a/biology/Botanique/Liste_des_espèces_du_genre_Solanum/Liste_des_espèces_du_genre_Solanum.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Solanum/Liste_des_espèces_du_genre_Solanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Avec environ 1 400 espèces, le genre Solanum est le plus riche en espèces de la famille des Solanaceae et l'un des plus grands des angiospermes.
-Les analyses phylogénétiques sur des données moléculaires ont permis d'établir ou de confirmer que les genres Lycopersicon, Cyphomandra, Normania, et Triguera, précédemment considérés comme indépendants, doivent en réalité être inclus dans le genre Solanum. De fait, toutes les espèces de ces quatre genres ont été officiellement transférées dans le genre Solanum. À l'inverse, le genre Lycianthes, parfois inclus dans le genre Solanum, est un genre séparé[1],[2],[3],[4],[5].
-Ci-après, voici une liste, non exhaustive, d'espèces de Solanum classées dans l'ordre alphabétique. Pour chacune sont indiqués le nom binomial suivi du nom d'auteur, abrégé selon les conventions et usages ainsi que la publication valide[6].
-Les espèces tubéreuses du genre (celles apparentées à la pomme de terre et, pour cette raison souvent appelées « pommes de terre sauvages ») sont signalées par la lettre T. En fin de liste, apparaissent les nothoespèces du genre, c'est-à-dire les taxons qui doivent leur origine à l'hybridation entre deux espèces différentes (comme, par exemple, Solanum × viirsooi, dont on a démontré qu'il est un hybride interspécifique issu du croisement entre S. acaule et  S. infundibuliforme.)[7]. 
+Les analyses phylogénétiques sur des données moléculaires ont permis d'établir ou de confirmer que les genres Lycopersicon, Cyphomandra, Normania, et Triguera, précédemment considérés comme indépendants, doivent en réalité être inclus dans le genre Solanum. De fait, toutes les espèces de ces quatre genres ont été officiellement transférées dans le genre Solanum. À l'inverse, le genre Lycianthes, parfois inclus dans le genre Solanum, est un genre séparé.
+Ci-après, voici une liste, non exhaustive, d'espèces de Solanum classées dans l'ordre alphabétique. Pour chacune sont indiqués le nom binomial suivi du nom d'auteur, abrégé selon les conventions et usages ainsi que la publication valide.
+Les espèces tubéreuses du genre (celles apparentées à la pomme de terre et, pour cette raison souvent appelées « pommes de terre sauvages ») sont signalées par la lettre T. En fin de liste, apparaissent les nothoespèces du genre, c'est-à-dire les taxons qui doivent leur origine à l'hybridation entre deux espèces différentes (comme, par exemple, Solanum × viirsooi, dont on a démontré qu'il est un hybride interspécifique issu du croisement entre S. acaule et  S. infundibuliforme.). 
 Sommaire :
 Haut – A
 B
@@ -524,7 +536,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +554,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Solanum abancayense Ochoa Anales Ci., Univ. Nac. Agrar., Lima 1(2): 134. 1963.
 Solanum abbotianum Juz. Izv. Akad. Nauk SSSR, Otd. Mat. Nauk, ser. Biol. 2: 305. 1937.
@@ -574,7 +588,7 @@
 Solanum acutilobum Dunal in Poiret, Encycl. Suppl. 3: 772. 1814.
 Solanum adelense Delile in Rochet, Sec. Voy. Choa 345. 1846.
 Solanum adenophorum F.Muell. Fragm. 2: 162. 1861.
-Solanum adoense Hochst. ex A.Rich. Tent. Fl. Abyss. 2: 105. 1850 [1851].
+Solanum adoense Hochst. ex A.Rich. Tent. Fl. Abyss. 2: 105. 1850 .
 Solanum adscendens Sendtn. in Mart., Fl. Bras 10: 17, tab. 1, fig. 9-12. 1846.
 Solanum adspersum Witasek Akad. Wiss. Wien, Math.-Naturwiss. Kl., Denkschr. 79: 360. 1910.
 Solanum aethiopicum L. Cent. Pl. 2: 10. 1756.
@@ -634,7 +648,7 @@
 Solanum argentinum Bitter &amp; Lillo Repert. Spec. Nov. Regni Veg. 12: 547. 1913.
 Solanum argopetalum A.R.Bean Austrobaileya 6(4): 749. 2004.
 Solanum aridum Morong Ann. New York Acad. Sci. 7: 173. 1893.
-Solanum armentalis J.L.Gentry &amp; D'Arcy Ann. Missouri Bot. Gard. 64: 376. 1978 [1977].
+Solanum armentalis J.L.Gentry &amp; D'Arcy Ann. Missouri Bot. Gard. 64: 376. 1978 .
 Solanum armourense A.R.Bean Telopea 9(3): 656 (2001 publ. 2002).
 Solanum arundo Mattei Boll. Reale Orto Bot. Giardino Colon. Palermo 7: 188. 1908.
 Solanum ashbyae Symon J. Adelaide Bot. Gard. 4: 223, figs. 95, 97. 1981.
@@ -662,7 +676,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -680,7 +694,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Solanum bahamense L. Sp. Pl. 188. 1753.
@@ -731,7 +747,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -749,7 +765,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">  
 Solanum caavurana Vell. Fl. Flumin. 86. 1829.
@@ -768,7 +786,7 @@
 Solanum campanuliflorum C.H.Wright Kew Bull. 1894: 127. 1894.
 Solanum campechiense L. Sp. Pl. 187. 1753
 Solanum camptostylum Bitter in Sarasin &amp; Roux, Nova Caledonia, Bot. 1: 221. 1921.
-Solanum campylacanthum Hochst. ex A.Rich. Tent. Fl. Abyss. 2: 102. 1850 [1851].
+Solanum campylacanthum Hochst. ex A.Rich. Tent. Fl. Abyss. 2: 102. 1850 .
 T  Solanum candidum Lindl. Bot. Reg. Misc. 25: 73. 1839.
 T  Solanum candolleanum Berthault, Ann. Sci. Agron. Franç. Étrangère, ser. 3, 6: 190. 1911
 Solanum canense Rydb. Bull. Torrey Bot. Club 51: 174. 1924.
@@ -884,7 +902,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -902,17 +920,19 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Solanum dallmannianum Warb. Bot. Jahrb. Syst. 13: 415. 1891.
 Solanum damarense Bitter Repert. Spec. Nov. Regni Veg. 16: 90. 1923.
 Solanum dammerianum Lauterb. &amp; K.Schum. Notizbl. Bot. Gart. Berlin 2: 147. 1898.
 Solanum daphnophyllum Bitter Repert. Spec. Nov. Regni Veg. 18: 67. 1922.
-Solanum darienense S.Knapp Ann. Missouri Bot. Gard. 73: 738. 1987 [1986].
+Solanum darienense S.Knapp Ann. Missouri Bot. Gard. 73: 738. 1987 .
 Solanum dasyadenium Bitter Repert. Spec. Nov. Regni Veg. 11: 8. 1912.
 Solanum dasyanthum Brandegee Univ. Calif. Pub. Bot. 6: 193. 1913. [1915?]
 Solanum dasyneuron S.Knapp Ann. Missouri Bot. Gard. 72: 563. 1985.
-Solanum dasyphyllum Schumach. &amp; Thonn. in Schumach., Beskr. Guin. Pl. 126 [146]. 1827.
+Solanum dasyphyllum Schumach. &amp; Thonn. in Schumach., Beskr. Guin. Pl. 126 . 1827.
 Solanum davidsei Carvalho Ann. Missouri Bot. Gard. 78: 229. 1991.
 Solanum davisense Whalen. Wrightia 5: 234. 1976.
 Solanum decompositiflorum Sendtn. in Mart., Fl. Bras. 10: 88, tab. 6, fig. 34-37. 1846.
@@ -946,14 +966,14 @@
 Solanum dissectum Symon Austrobaileya 4: 432. 1995.
 Solanum dissimile C.V.Morton Contr. U.S. Natl. Herb. 29: 52. 1944.
 Solanum distichophyllum Sendtn. in Mart. Fl. Bras. 10: 35, tab. 3, fig. 19. 1846.
-Solanum distichum Schumach. &amp; Thonn. in Schumach., Beskr. Guin. Pl. 122 [142]. 1827.
+Solanum distichum Schumach. &amp; Thonn. in Schumach., Beskr. Guin. Pl. 122 . 1827.
 Solanum ditrichum A.R.Bean Austrobaileya 6(4): 721. 2004.
 Solanum diversiflorum Mueller Fragm. 6: 146. 1868.
 Solanum diversifolium Dunal Solan. Syn. 8. 1816.
 T Solanum dolichocremastrum Bitter. Repert. Spec. Nov. Regni Veg. 12:3-4. 1913.
 Solanum dolichorhachis Bitter Repert. Spec. Nov. Regni Veg. 11: 490. 1913.
 Solanum dolichosepalum Bitter Repert. Spec. Nov. Regni Veg. 16: 395. 1920.
-Solanum dolosum S.Knapp Ann. Missouri Bot. Gard. 73: 742. 1987 [1986].
+Solanum dolosum S.Knapp Ann. Missouri Bot. Gard. 73: 742. 1987 .
 T Solanum donachui (Ochoa) Ochoa. Phytologia 54:392. 1983.
 Solanum donianum Walp. Rep. 3: 54. 1844.
 Solanum douglasii Dunal in DC., Prodr. 13(1) : 48. 1852.
@@ -972,7 +992,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -990,7 +1010,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Solanum eardleyae Symon J. Adelaide Bot. Gard. 4: 212. 1981, figs. 83, 89.
 Solanum eburneum Symon Trans. Roy. Soc. S. Austral. 95: 228. 1971.
@@ -1028,7 +1050,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1046,7 +1068,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Solanum falconense S.Knapp Bull. Br. Mus. Nat. Hist. (Bot.) 19: 103. 1989.
 Solanum fallax Bohs Taxon 44: 585. 1995.
@@ -1066,7 +1090,7 @@
 Solanum foetens Pittier ex S.Knapp Brittonia 38: 275. 1986.
 Solanum forskalii Dunal Hist. Nat. Solanum 237. 1813.
 Solanum fortunense Bohs Taxon 44: 584. 1995.
-Solanum fosbergianum D'Arcy Ann. Missouri Bot. Gard. 60(3) : 700. 1974 [1973] .
+Solanum fosbergianum D'Arcy Ann. Missouri Bot. Gard. 60(3) : 700. 1974  .
 Solanum francisii A.R.Bean Austrobaileya 6(4): 768. 2004.
 Solanum fraxinifolium Dunal in DC., Prodr. 13(1) : 39. 1852.
 Solanum fructo-tecto Cav. Icon. 4: 5, tab. 309. 1797.
@@ -1084,7 +1108,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1102,7 +1126,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Solanum gabrielae Domin Biblioth. Bot. 89: 1142. 1929.
 Solanum galapagense S.C.Darwin &amp; Peralta Syst. Biodivers. 1(1): 45 2003.
@@ -1151,7 +1177,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1169,7 +1195,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Solanum habrocaulon S.Knapp Novon 6: 31. 1996.
 Solanum habrochaites S.Knapp &amp; D.M.Spooner Novon 9(3): 375. 1999.
@@ -1232,7 +1260,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1250,7 +1278,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Solanum iltisii K.E.Roe Brittonia 24(3): 256. 1972.
 Solanum imamense Dunal in DC., Prodr. 13(1) : 85. 1852.
@@ -1295,7 +1325,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1313,7 +1343,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Solanum jabrense Agra &amp; M.Nee Brittonia 49(3): 350. 1997
 Solanum jamaicense Mill. Gard. Dict. ed 8, no. 17. 1768.
@@ -1336,7 +1368,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1354,7 +1386,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Solanum kagehense Dammer Bot. Jahrb. Syst. 38: 187. 1906.
 Solanum karsense Symon Trans. Roy. Soc. S. Austral. 95: 230. 1971.
@@ -1374,7 +1408,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1392,7 +1426,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Solanum lacerdae Dusén Arq. Mus. Nac. Rio de Janeiro 13: 33. 1905.
 Solanum lachneion Dammer Bot. Jahrb. Syst. 38: 194. 1906.
@@ -1460,7 +1496,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1478,7 +1514,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Solanum macaonense Dunal in DC., Prodr. 13(1) : 264. 1852.
 Solanum macbridei Hunz. &amp; Lallana Lorentzia 4: 17. 1981.
@@ -1560,7 +1598,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1578,7 +1616,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Solanum nakurense C.H.Wright Kew Bull. 1897: 275. 1897.
 Solanum namaquense Dammer Bot. Jahrb. Syst. 53: 325. 1915.
@@ -1614,7 +1654,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1632,7 +1672,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Solanum obliquum Ruiz &amp; Pav. Fl. Peruv. 2: 35, tab. 165, fig. a. 1799.
 Solanum oblongifolium Dunal Solan. Syn. 14. 1816.
@@ -1670,7 +1712,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1688,7 +1730,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Solanum pabstii L.B.Sm. &amp; Downs Phytologia 10: 427. 1964.
 Solanum pachimatium Dunal in DC., Prodr. 13(1) : 133. 1852.
@@ -1788,7 +1832,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1806,7 +1850,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Solanum quadriloculatum Mueller Fragm. 2: 161. 1860-1861.
 Solanum quaesitum C.V.Morton ex Gleason &amp; A.C.Sm. Bull. Torrey Bot. Club 60: 393. 1933.
@@ -1821,7 +1867,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1839,7 +1885,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Solanum racemosum Jacq. Enum. Syst. Pl. 15. 1760.
 Solanum radicans L.f. Dec. Pl. Horti Upsal. 1. Apr-Jul 1762.
@@ -1891,7 +1939,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1909,7 +1957,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Solanum sagittantherum Granados-Tochoy &amp; C.I. Orozco Caldasia 28(1): 2. 2006.
 Solanum salamancae Hunz. &amp; Barboza Lorentzia 7: 17, fig. 1. 1993.
@@ -1939,7 +1989,7 @@
 Solanum sellovianum Sendtn. in Mart., Fl. Bras. 10: 38. 1846.
 Solanum sellowii Dunal in DC., Prodr. 13(1) : 134. 1852.
 Solanum semiarmatum Mueller Fragm. 2: 163. 1861.
-Solanum semotum M.Nee Bol. Mus. Paraense Hist. Nat. 7(2) : 515. 1993 [1991].
+Solanum semotum M.Nee Bol. Mus. Paraense Hist. Nat. 7(2) : 515. 1993 .
 Solanum sendtnerianum Van Heurck &amp; Müll.Arg. Observ. Bot.  75. 1870.
 Solanum senticosum A.R.Bean Austrobaileya 6(4): 744. 2004.
 Solanum septemlobum Bunge Mem. Sav. Etr. Petersb. 2 [6?]: 122. 1835.
@@ -2014,7 +2064,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2032,7 +2082,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Solanum tabacicolor Dammer Bot. Jahrb. Syst. 53: 349. 1915.
 Solanum tabanoense Correll Wrightia 2: 170. 1961.
@@ -2115,7 +2167,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2133,7 +2185,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Solanum uleanum Bitter Repert. Spec. Nov. Regni Veg. 12: 139. 1913.
 Solanum ultimum A.R.Bean Austrobaileya 6(4): 680. 2004.
@@ -2143,7 +2197,7 @@
 Solanum umtuma
 Solanum uncinellum Lindl. Edwards's Bot. Reg. 26: t.15. 1840.
 Solanum undatum Lam. Tabl. Encycl. 2: 22. 1794.
-Solanum unifoliatum S.Knapp Ann. Missouri Bot. Gard. 73: 739. 1987 [1986].
+Solanum unifoliatum S.Knapp Ann. Missouri Bot. Gard. 73: 739. 1987 .
 Solanum unilobum (Rusby) Bohs Taxon 44: 586. 1995.
 Solanum urens Dunal in DC., Prodr. 13(1) : 311. 1852.
 Solanum urosepalum Dammer Bot. Jahrb. Syst. 53: 339. 1915.
@@ -2160,7 +2214,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2178,7 +2232,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Solanum vacciniiflorum Standl. &amp; L.O.Williams Ceiba 1: 247. 1951.
 Solanum vaccinioides Schltr. Bot. Jahrb. Syst. 40, Beibl. 92: 34. 1908.
@@ -2220,7 +2276,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2238,7 +2294,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Solanum wackettii Witasek Akad. Wiss. Wien, Math.-Naturwiss. Kl., Denkschr. 79: 34. 1910.
 Solanum wallacei (A.Gray) Parish Proc. Calif. Acad. ser. 3, 2: 166. 1901.
@@ -2260,7 +2318,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2278,7 +2336,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Solanum xanthophaeum Bitter Repert. Spec. Nov. Regni Veg. 16: 401. 1920.
 Solanum xanti A.Gray Proc. Amer. Acad. Arts 11: 90. 1876.</t>
@@ -2291,7 +2351,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2309,7 +2369,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>T Solanum yamobambense Ochoa.  Agronomía (Lima) 27:367-368. 1960.
 Solanum yanamonense S.Knapp Brittonia 38: 298. 1986.
@@ -2325,7 +2387,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2343,7 +2405,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Solanum zanzibarense Vatke. Linnaea 43: 326. 1880-1882.</t>
         </is>
@@ -2355,7 +2419,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Solanum</t>
+          <t>Liste_des_espèces_du_genre_Solanum</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2373,7 +2437,9 @@
           <t>Taxons hybrides (Nothoespèces)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">T Solanum ×ajanhuiri Juz. &amp; Bukasov. Trudy vsecouz. sezda genetike 3:605. 1929.
 T Solanum ×arahuayum Ochoa. Phytologia 77:96. 1995.
